--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1390.85</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>2697.88</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>240</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>777</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>5986.02</v>
+        <v>814.04</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>1192.02</v>
+        <v>380.12</v>
       </c>
     </row>
     <row r="9">
@@ -760,13 +760,13 @@
         <v>97</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1969.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>236</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>1599</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3">
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>1985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>133</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>1100</v>
+        <v>139.32</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>814.04</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
@@ -794,13 +794,13 @@
         <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>728</v>
+        <v>553.05</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>148</v>
+        <v>451.67</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>204.07</v>
       </c>
     </row>
     <row r="5">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>142</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>380.12</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>98</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>260</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>97</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>35</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>553.05</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>451.67</v>
+        <v>130.62</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>204.07</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="5">
@@ -624,13 +624,13 @@
         <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>139.32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>2477</v>
+        <v>1832.44</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>1012</v>
+        <v>581.77</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>130.62</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>612</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>1832.44</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>581.77</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>238</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -624,13 +624,13 @@
         <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO106</t>
+          <t>BOVAO108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>102</v>
+        <v>80.72</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO105</t>
+          <t>BOVAO106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>10.02</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>676</v>
+        <v>3541.3</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>116</v>
+        <v>676</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>820</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>150</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO108</t>
+          <t>BOVAO106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>80.72</v>
+        <v>940.95</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO106</t>
+          <t>BOVAO105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO105</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>310.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>331</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>3541.3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>676</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>30.02</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>940.95</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>10.11</v>
+        <v>83.09999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>120</v>
+        <v>40.03</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>30.02</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>83.09999999999999</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>40.03</v>
+        <v>139.9</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO106</t>
+          <t>BOVAO105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO105</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>139.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>205</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO105</t>
+          <t>BOVAO106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>820</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>150</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO950</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO106</t>
+          <t>BOVAO105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO105</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>205</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO105</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>2147.83</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>820</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>205</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO950</t>
+          <t>BOVAO940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>1015</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>380</v>
+        <v>2147.83</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2147.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>205</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO950</t>
+          <t>BOVAO940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO940</t>
+          <t>BOVAO930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2147.83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>2147.83</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>205</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO950</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO940</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO930</t>
+          <t>BOVAO950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO105</t>
+          <t>BOVAO104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAO103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAO95</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAO100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAO990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>82</v>
+        <v>2147.83</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAO980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2147.83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAO970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAO960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAO950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>205</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO950</t>
+          <t>BOVAO940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAO104</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,13 +488,13 @@
         <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>129</v>
+        <v>232.92</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAO103</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,13 +522,13 @@
         <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAO95</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +556,13 @@
         <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>947.88</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAO100</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>1141.53</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAO990</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>2147.83</v>
+        <v>2182.98</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAO980</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAO970</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>150</v>
+        <v>234.8</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAO960</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>205</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAO950</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAO940</t>
+          <t>BOVAP950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
         <v>25</v>
-      </c>
-      <c r="H2" t="n">
-        <v>232.92</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>947.88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1141.53</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>2182.98</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>894</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>234.8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>25</v>
+        <v>3439.8</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>138</v>
+        <v>816.03</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>723</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>1419</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>120</v>
+        <v>2879.48</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>222</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>20.02</v>
+        <v>934.42</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.08</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP950</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1320</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3439.8</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
         <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>200</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
         <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>816.03</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>207</v>
+        <v>1319.97</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>213</v>
+        <v>1240.24</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F7" t="n">
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>2879.48</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>103</v>
+        <v>1046.23</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>934.42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>20.02</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>78</v>
+        <v>20.02</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP106</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>682</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>1319.97</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1240.24</v>
+        <v>119.98</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
         <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>213</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1046.23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>62</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>530</v>
+        <v>1164.9</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>20.02</v>
+        <v>1311.78</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>85</v>
+        <v>120.2</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1486</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>119.98</v>
+        <v>1510.32</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.02</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>62</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1164.9</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1311.78</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>120.2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>292</v>
+        <v>228.12</v>
       </c>
     </row>
     <row r="5">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>1510.32</v>
+        <v>1768.62</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>530</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>520</v>
+        <v>1480.77</v>
       </c>
     </row>
     <row r="11">
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>112</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>171.8</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>228.12</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
@@ -624,13 +624,13 @@
         <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="H6" t="n">
-        <v>1768.62</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="7">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>666</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>260</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1480.77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>126</v>
+        <v>2339.11</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>171.8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>280</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>48.2</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4778.63</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>220</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP950</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>2339.11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -556,13 +556,13 @@
         <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>110</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4778.63</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>220</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>469.02</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>126</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>621.2</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>435</v>
+        <v>413.69</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>122</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>436</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>502</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>469.02</v>
+        <v>1704.6</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>621.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>621.2</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>413.69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>436</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>502</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP950</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1704.6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>99.3</v>
+        <v>140.15</v>
       </c>
     </row>
     <row r="4">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>436</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>240</v>
+        <v>8065.63</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>140.15</v>
+        <v>3147.87</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>2748.32</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>621.2</v>
+        <v>676.71</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>625.01</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>383.74</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>502</v>
+        <v>2040.84</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>8065.63</v>
+        <v>7767.02</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>3147.87</v>
+        <v>171.02</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2748.32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>676.71</v>
+        <v>252.04</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="H6" t="n">
-        <v>625.01</v>
+        <v>6426.23</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1327</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>383.74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
@@ -732,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>2040.84</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>7767.02</v>
+        <v>30.02</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>171.02</v>
+        <v>767.99</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>70</v>
+        <v>2104.89</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>252.04</v>
+        <v>868.01</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>6426.23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>22.01</v>
+        <v>252.04</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>120</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>235</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP950</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP106</t>
+          <t>BOVAP107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>30.02</v>
+        <v>194.94</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>767.99</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2104.89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>868.01</v>
+        <v>2104.89</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>70</v>
+        <v>908.12</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>252.04</v>
+        <v>73.98999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>304</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>39.99</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
@@ -766,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>139</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>235</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP107</t>
+          <t>BOVAP105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="H2" t="n">
-        <v>194.94</v>
+        <v>365.01</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP106</t>
+          <t>BOVAP104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>600</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2104.89</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>908.12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>73.98999999999999</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>304</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>39.99</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>139</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>365.01</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1038</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.07</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP105</t>
+          <t>BOVAP103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>12.03</v>
+        <v>434.13</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP104</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.92</v>
+        <v>213.41</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3483.67</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>9.59</v>
+        <v>3505.05</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>438.01</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>304</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
@@ -698,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>39.99</v>
+        <v>948.01</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>139</v>
+        <v>682.01</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>235</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>438.02</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>434.13</v>
+        <v>290.32</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>213.41</v>
+        <v>1126.17</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>3483.67</v>
+        <v>270.01</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>3505.05</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>438.01</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>948.01</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP103</t>
+          <t>BOVAP102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>290.32</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAP101</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>1126.17</v>
+        <v>142.66</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAP100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>270.01</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAP990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2197</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAP980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>517</v>
+        <v>11.34</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAP970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>141</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAP960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>184</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAP950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>682.01</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP950</t>
+          <t>BOVAP940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>438.02</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP940</t>
+          <t>BOVAP930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>438.02</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>936</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="3">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1846</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>11.99</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="6">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAP102</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,13 +488,13 @@
         <v>102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>6.67</v>
+        <v>11539.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAP101</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="H3" t="n">
-        <v>142.66</v>
+        <v>27123.96</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAP100</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAP990</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>13.33</v>
+        <v>3563.75</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAP980</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -624,13 +624,13 @@
         <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>11.34</v>
+        <v>2537.3</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAP970</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -658,13 +658,13 @@
         <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>370</v>
+        <v>1702.25</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAP960</t>
+          <t>BOVAQ960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,13 +692,13 @@
         <v>96</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="H8" t="n">
-        <v>23.12</v>
+        <v>9446.48</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAP950</t>
+          <t>BOVAQ950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,13 +726,13 @@
         <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAP940</t>
+          <t>BOVAQ940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -760,13 +760,13 @@
         <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>438.02</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAP930</t>
+          <t>BOVAQ930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -794,13 +794,13 @@
         <v>93</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>606</v>
+        <v>2278.68</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAQ103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="G2" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>11539.05</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>27123.96</v>
+        <v>7565.19</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
         <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>62208.75</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3563.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="n">
         <v>0.07000000000000001</v>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>2537.3</v>
+        <v>6118.33</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>1702.25</v>
+        <v>2606.08</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ960</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" t="n">
         <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>9446.48</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ950</t>
+          <t>BOVAQ960</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>3690</v>
+        <v>7765.35</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ940</t>
+          <t>BOVAQ950</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H10" t="n">
-        <v>4205</v>
+        <v>14675.41</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ930</t>
+          <t>BOVAQ940</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="H11" t="n">
-        <v>2278.68</v>
+        <v>21428.22</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>376</v>
+        <v>3635.67</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>7565.19</v>
+        <v>1904.4</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>62208.75</v>
+        <v>5354.81</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>99.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>6118.33</v>
+        <v>76.28</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>98</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2606.08</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>97</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
         <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>2853</v>
+        <v>2762.91</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>96</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H9" t="n">
-        <v>7765.35</v>
+        <v>4152.44</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>14675.41</v>
+        <v>4509.17</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="H11" t="n">
-        <v>21428.22</v>
+        <v>995.02</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>3635.67</v>
+        <v>11471</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="H3" t="n">
-        <v>1904.4</v>
+        <v>3073.5</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>5354.81</v>
+        <v>3416.12</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>99.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1440</v>
+        <v>105.04</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>99</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>76.28</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>2762.91</v>
+        <v>527.11</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>4152.44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>4509.17</v>
+        <v>4126.08</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ103</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>11471</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>3073.5</v>
+        <v>817.96</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3416.12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>105.04</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>46.16</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>150</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAQ960</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
         <v>0.02</v>
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>527.11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ960</t>
+          <t>BOVAQ950</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>92</v>
+        <v>340.08</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ950</t>
+          <t>BOVAQ940</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>4126.08</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ940</t>
+          <t>BOVAQ930</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>995.02</v>
+        <v>4738</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2460</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>817.96</v>
+        <v>2208.02</v>
       </c>
     </row>
     <row r="4">
@@ -590,13 +590,13 @@
         <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>46.16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>97</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>39.98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>237</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>340.08</v>
+        <v>1000.7</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>94</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1506</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4738</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAQ104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAQ103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>2208.02</v>
+        <v>521.05</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>99.5</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>2577.17</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1500</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ960</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2020</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ950</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>1000.7</v>
+        <v>1950.85</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ940</t>
+          <t>BOVAQ960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>280</v>
+        <v>1428.84</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ930</t>
+          <t>BOVAQ950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>679.9299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ104</t>
+          <t>BOVAQ105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ103</t>
+          <t>BOVAQ104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>521.05</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAQ103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>2577.17</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>185</v>
+        <v>180.46</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>1950.85</v>
+        <v>8209.99</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ960</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10" t="n">
-        <v>1428.84</v>
+        <v>1950.85</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ950</t>
+          <t>BOVAQ960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>679.9299999999999</v>
+        <v>6.8</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ105</t>
+          <t>BOVAQ104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>692</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ104</t>
+          <t>BOVAQ103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>765</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ103</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>150.04</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>434</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="F6" t="n">
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>180.46</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>8209.99</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>8209.99</v>
+        <v>94.47</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAQ960</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1950.85</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ960</t>
+          <t>BOVAQ950</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>679.9299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>362</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>150.04</v>
+        <v>761.5</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>158</v>
+        <v>9419.76</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>99.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>99</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>411.15</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>8209.99</v>
+        <v>254.72</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>94.47</v>
+        <v>2911.05</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>6.8</v>
+        <v>1314.7</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>679.9299999999999</v>
+        <v>600.79</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAQ104</t>
+          <t>BOVAQ106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>432</v>
+        <v>2565.26</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAQ103</t>
+          <t>BOVAQ105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
         <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAQ102</t>
+          <t>BOVAQ104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>761.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAQ100</t>
+          <t>BOVAQ103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H5" t="n">
-        <v>9419.76</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAQ995</t>
+          <t>BOVAQ102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>99.5</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>548.22</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAQ990</t>
+          <t>BOVAQ100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>411.15</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAQ980</t>
+          <t>BOVAQ995</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>98</v>
+        <v>99.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>254.72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAQ970</t>
+          <t>BOVAQ990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2911.05</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAQ960</t>
+          <t>BOVAQ980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>1314.7</v>
+        <v>254.72</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAQ950</t>
+          <t>BOVAQ970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>600.79</v>
+        <v>2911.05</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2565.26</v>
+        <v>50.01</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>72</v>
+        <v>1214.03</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>98</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>50.01</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1214.03</v>
+        <v>2014.45</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>872</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -763,10 +763,10 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>254.72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>106</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>10.01</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2014.45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="5">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>70.01000000000001</v>
+        <v>119.87</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>380.13</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>385</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>219</v>
+        <v>455.03</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>455.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02</v>
+        <v>70.01000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>70.01000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAV970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>119.87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>50.8</v>
+        <v>561.8099999999999</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>455.03</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="6">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>9640</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>57</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>179</v>
+        <v>110.99</v>
       </c>
     </row>
     <row r="5">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9640</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>200</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>561.8099999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>110.99</v>
+        <v>561.8099999999999</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>70.01000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>70.01000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV970</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="11">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV108</t>
+          <t>BOVAV107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAV106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1</v>
+        <v>561.8099999999999</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAV105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>561.8099999999999</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAV104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAV103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.81</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAV102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAV101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>70.01000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAV100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>70.01000000000001</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAV980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAV970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
@@ -800,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAV107</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,13 +488,13 @@
         <v>107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6116.86</v>
       </c>
     </row>
     <row r="3">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAV106</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,13 +522,13 @@
         <v>106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>561.8099999999999</v>
+        <v>2821.7</v>
       </c>
     </row>
     <row r="4">
@@ -539,12 +539,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAV105</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -556,13 +556,13 @@
         <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>8421.540000000001</v>
       </c>
     </row>
     <row r="5">
@@ -573,12 +573,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAV104</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -590,13 +590,13 @@
         <v>104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>4.81</v>
+        <v>2691.6</v>
       </c>
     </row>
     <row r="6">
@@ -607,12 +607,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAV103</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -624,13 +624,13 @@
         <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>14000.25</v>
       </c>
     </row>
     <row r="7">
@@ -641,12 +641,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAV102</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -658,13 +658,13 @@
         <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>2380.5</v>
       </c>
     </row>
     <row r="8">
@@ -675,12 +675,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAV101</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -692,13 +692,13 @@
         <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>70.01000000000001</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="9">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAV100</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,13 +726,13 @@
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.21</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="10">
@@ -743,12 +743,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAV980</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H10" t="n">
-        <v>70</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="11">
@@ -777,12 +777,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-11-14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAV970</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>11951</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>6116.86</v>
+        <v>30592.01</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>2821.7</v>
+        <v>20110.26</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>8421.540000000001</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2691.6</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>14000.25</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>2380.5</v>
+        <v>5844.03</v>
       </c>
     </row>
     <row r="8">
@@ -692,13 +692,13 @@
         <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1065</v>
+        <v>670.04</v>
       </c>
     </row>
     <row r="9">
@@ -726,13 +726,13 @@
         <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>1504</v>
+        <v>11677.33</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +760,13 @@
         <v>99</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>5630</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -794,13 +794,13 @@
         <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>11951</v>
+        <v>1570.83</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>30592.01</v>
+        <v>13818</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>20110.26</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="H4" t="n">
-        <v>1775</v>
+        <v>992</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2000</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>4184</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>5844.03</v>
+        <v>1219.58</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>670.04</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="9">
@@ -729,10 +729,10 @@
         <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>11677.33</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="10">
@@ -763,10 +763,10 @@
         <v>0.03</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6</v>
+        <v>362.97</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1570.83</v>
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" t="n">
         <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>13818</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="n">
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="H3" t="n">
-        <v>250</v>
+        <v>992</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G4" t="n">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>992</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>64</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>1842</v>
+        <v>1219.58</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" t="n">
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>1219.58</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
         <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>35.4</v>
+        <v>356.7</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" t="n">
         <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>356.7</v>
+        <v>362.97</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>362.97</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>7.6</v>
+        <v>2684</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>250</v>
+        <v>3150.03</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>109</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>992</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>64</v>
+        <v>1407.53</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>1842</v>
+        <v>277.56</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1219.58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
         <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>35.4</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>356.7</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H9" t="n">
-        <v>362.97</v>
+        <v>4315.05</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6</v>
+        <v>3810.08</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H11" t="n">
-        <v>2684</v>
+        <v>5008.01</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>3150.03</v>
+        <v>3205.32</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1407.53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>277.56</v>
+        <v>1312.02</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>20.01</v>
+        <v>595.4400000000001</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>13.04</v>
+        <v>1174.12</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>4315.05</v>
+        <v>4404.46</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H10" t="n">
-        <v>3810.08</v>
+        <v>450.68</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>5008.01</v>
+        <v>1180</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3205.32</v>
+        <v>330.04</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>600</v>
+        <v>7839.07</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>240.02</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1312.02</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>78</v>
+        <v>30.1</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>595.4400000000001</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1174.12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -760,13 +760,13 @@
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>450.68</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1180</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -491,10 +491,10 @@
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>330.04</v>
+        <v>1137.45</v>
       </c>
     </row>
     <row r="3">
@@ -525,10 +525,10 @@
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>7839.07</v>
+        <v>939</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>240.02</v>
+        <v>530.8200000000001</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
@@ -627,10 +627,10 @@
         <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>30.1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2010</v>
+        <v>115.02</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>124</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW108</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>1137.45</v>
+        <v>330.06</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>939</v>
+        <v>2751.96</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="H4" t="n">
-        <v>530.8200000000001</v>
+        <v>4920.04</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.03</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
-        <v>245</v>
+        <v>2100.09</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>600</v>
+        <v>1280.14</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>115.02</v>
+        <v>771.22</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>44.98</v>
+        <v>701.08</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>4404.46</v>
+        <v>370.36</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1</v>
+        <v>576.04</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>136</v>
+        <v>3519.12</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>330.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.03</v>
       </c>
       <c r="G3" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>2751.96</v>
+        <v>2177.97</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.03</v>
       </c>
       <c r="G4" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>4920.04</v>
+        <v>695.55</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>2100.09</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
         <v>0.03</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>1280.14</v>
+        <v>112.06</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>771.22</v>
+        <v>326.08</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>701.08</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H9" t="n">
-        <v>370.36</v>
+        <v>1090.08</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>576.04</v>
+        <v>1315.96</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H11" t="n">
-        <v>3519.12</v>
+        <v>5770.06</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW108</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07000000000000001</v>
+        <v>533.34</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>2177.97</v>
+        <v>1930.52</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>695.55</v>
+        <v>853.34</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F5" t="n">
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="H5" t="n">
-        <v>12.02</v>
+        <v>2386.06</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>112.06</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>326.08</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>294</v>
+        <v>1326.01</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
         <v>0.02</v>
       </c>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>1090.08</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW970</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>1315.96</v>
+        <v>308.52</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW960</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>5770.06</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -488,13 +488,13 @@
         <v>108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>533.34</v>
+        <v>810.64</v>
       </c>
     </row>
     <row r="3">
@@ -522,13 +522,13 @@
         <v>107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>1930.52</v>
+        <v>1072.65</v>
       </c>
     </row>
     <row r="4">
@@ -556,13 +556,13 @@
         <v>106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>853.34</v>
+        <v>963.89</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +590,13 @@
         <v>105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>2386.06</v>
+        <v>1938.71</v>
       </c>
     </row>
     <row r="6">
@@ -624,13 +624,13 @@
         <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>104</v>
+        <v>1741.04</v>
       </c>
     </row>
     <row r="7">
@@ -661,10 +661,10 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>1010</v>
+        <v>847.3099999999999</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>1326.01</v>
+        <v>377.99</v>
       </c>
     </row>
     <row r="9">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW108</t>
+          <t>BOVAW107</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>810.64</v>
+        <v>1072.65</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>1072.65</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>963.89</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>1938.71</v>
+        <v>1741.04</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1741.04</v>
+        <v>847.3099999999999</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>847.3099999999999</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>377.99</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>232.34</v>
+        <v>308.52</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>308.52</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>549</v>
+        <v>186.27</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -593,10 +593,10 @@
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1741.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -729,10 +729,10 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>308.52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOVAW107</t>
+          <t>BOVAW105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>1072.65</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOVAW106</t>
+          <t>BOVAW104</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -544,7 +544,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOVAW105</t>
+          <t>BOVAW103</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,16 +553,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOVAW104</t>
+          <t>BOVAW102</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>0.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6">
@@ -612,7 +612,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOVAW103</t>
+          <t>BOVAW101</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
-        <v>847.3099999999999</v>
+        <v>232.34</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BOVAW102</t>
+          <t>BOVAW100</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0.01</v>
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -680,7 +680,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BOVAW101</t>
+          <t>BOVAW990</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>232.34</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9">
@@ -714,7 +714,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BOVAW100</t>
+          <t>BOVAW980</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,16 +723,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" t="n">
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="10">
@@ -748,7 +748,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BOVAW990</t>
+          <t>BOVAW970</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H10" t="n">
-        <v>549</v>
+        <v>155.34</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +782,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BOVAW980</t>
+          <t>BOVAW960</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>186.27</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1000</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>1220</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="5">
@@ -797,10 +797,10 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/bova11_disaster.xlsx
+++ b/bova11_disaster.xlsx
@@ -525,10 +525,10 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
